--- a/biology/Botanique/Ravageurs_du_soya/Ravageurs_du_soya.xlsx
+++ b/biology/Botanique/Ravageurs_du_soya/Ravageurs_du_soya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive des ravageurs du soya (Glycine max).
 </t>
@@ -511,7 +523,9 @@
           <t>Mollusque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deroceras reticulatum (limace réticulée),</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Arachnides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tetranychus urticae (tétranyque à deux points),</t>
         </is>
@@ -571,39 +587,179 @@
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Diverses espèces d'insectes attaquent le soya.
-Coléoptères
-Epilachna varivestis (coccinelle mexicaine du haricot),
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses espèces d'insectes attaquent le soya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epilachna varivestis (coccinelle mexicaine du haricot),
 Certoma trifurcata (chrysomèle du haricot),
 Oberea brevis (coléoptère à anneaux, foreur de la tige),
 Popillia japonica (scarabée japonais),
 Phyllophaga anxia (hanneton commun du Québec),
 Rhizotrogus majalis (hanneton européen),
 Sternechus subsignatus (coléoptère à anneaux, foreur de la tige),
-Diptères
-Delia platura (mouche des légumineuses, mouche grise des semis).
-Delia florilega (mouche des semis)[1]
-Melanagromyza shibatsuji (mouche de la tige[1]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Delia platura (mouche des légumineuses, mouche grise des semis).
+Delia florilega (mouche des semis)
+Melanagromyza shibatsuji (mouche de la tige
 Melanagromyza sojae (mouche mineuse)
 Melanagromyza dolichostigma (mouche mineuse)
 Melanagromyza vignalis (mouche mineuse)
-Ophiomyia centrosematis[1]
-Ophiomyia phaseoli (mouche mineuse du haricot)[1]
-Rivellia apicalis (cécidomyie des racines du soja)[1].
-Rivellia basilaris[1]
-Rivellia quadrifasciata (mouche des nodosités du soja)[1]
-Hémiptères
-Aphis glycines (puceron du soya)[2],
+Ophiomyia centrosematis
+Ophiomyia phaseoli (mouche mineuse du haricot)
+Rivellia apicalis (cécidomyie des racines du soja).
+Rivellia basilaris
+Rivellia quadrifasciata (mouche des nodosités du soja)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aphis glycines (puceron du soya),
 Nezara viridula (punaise verte),
 Euschistus servus (punaise fétide),
 Lygus lineolaris (punaise terne),
 Piezodorus guildinii (petite punaise puante),
-Riptortus linearis,
-Lépidoptères
-Etiella zinckenella (foreur des gousses de haricot de Lima, pyrale des haricots),
-Elasmopalpus lignosellus (petite perceuse de la tige du maïs)[1],
+Riptortus linearis,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_soya</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Etiella zinckenella (foreur des gousses de haricot de Lima, pyrale des haricots),
+Elasmopalpus lignosellus (petite perceuse de la tige du maïs),
 Ostrinia nubilalis (pyrale du maïs),
 Anticarsia gemmatalis (chenille du pois mascate),
 Chrysodeixis includens (arpenteuse du soja),
@@ -614,31 +770,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Ravageurs_du_soya</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ravageurs_du_soya</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Nématodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Heterodera glycines (nématode du soja, nématode à kystes du soja),
 Rotylenchulus reniformis (nématode réniforme),
